--- a/Humanitarian_VS_Technical/Data/Professions/41 Юриспруденция.xlsx
+++ b/Humanitarian_VS_Technical/Data/Professions/41 Юриспруденция.xlsx
@@ -669,6 +669,7 @@
           <t>Конфликтолог</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="n">
@@ -697,6 +698,7 @@
           <t>Медиатор</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="n">
@@ -725,6 +727,7 @@
           <t>Договорной юрист</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="n">
@@ -753,6 +756,7 @@
           <t>Специалист претензионного отдела</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
@@ -781,6 +785,7 @@
           <t>Юрист по правовой экспертизе контрактов</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="n">
@@ -809,6 +814,7 @@
           <t>Юрист судебник</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="n">
@@ -837,6 +843,7 @@
           <t>Юрист по гражданскому праву</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="n">
@@ -865,6 +872,7 @@
           <t>Юрист арбитражник</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="n">
@@ -893,6 +901,7 @@
           <t>Юрист по трудовому праву</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="n">
@@ -921,6 +930,7 @@
           <t>Юрист по уголовному праву</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="n">
@@ -949,6 +959,7 @@
           <t>Юрист по административному праву</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="n">
@@ -977,6 +988,7 @@
           <t>Юрист по конституционному праву</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="n">
@@ -1005,11 +1017,7 @@
           <t>Юрист по интеллектуальному праву</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Гуманитарный</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="n">
@@ -1038,6 +1046,7 @@
           <t>Сетевой юрист</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="n">
@@ -1066,6 +1075,7 @@
           <t>Юрист по морскому праву (морской юрист)</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="n">
@@ -1094,6 +1104,7 @@
           <t>Юрист-международник</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="n">
@@ -1122,6 +1133,7 @@
           <t>Адвокат</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
@@ -1150,6 +1162,7 @@
           <t>Адвокат по гражданскому праву</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="n">
@@ -1178,6 +1191,7 @@
           <t>Адвокат по арбитражу</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="n">
@@ -1206,6 +1220,7 @@
           <t>Адвокат по трудовому праву</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="8" t="n">
@@ -1234,6 +1249,7 @@
           <t>Адвокат по уголовному праву</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="8" t="n">
@@ -1262,6 +1278,7 @@
           <t>Адвокат по административному праву</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
@@ -1290,6 +1307,7 @@
           <t>Адвокат по конституционному праву</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="n">
@@ -1318,6 +1336,7 @@
           <t>Адвокат по интеллектуальному праву</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="n">
@@ -1346,6 +1365,7 @@
           <t>Юрисконсульт</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="n">
@@ -1374,6 +1394,7 @@
           <t>Виртуальный адвокат</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="n">
@@ -1402,6 +1423,7 @@
           <t>Судья</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="n">
@@ -1430,6 +1452,7 @@
           <t>Мировой судья</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
@@ -1458,6 +1481,7 @@
           <t>Районный судья</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="n">
@@ -1486,6 +1510,7 @@
           <t>Конституционный судья</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
@@ -1514,6 +1539,7 @@
           <t>Верховный судья</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="8" t="n">
@@ -1542,6 +1568,7 @@
           <t>Арбитражный судья</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="n">
@@ -1570,6 +1597,7 @@
           <t>Военный судья</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="8" t="n">
@@ -1598,6 +1626,7 @@
           <t>Специалист по судебному администрированию</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="n">
@@ -1626,6 +1655,7 @@
           <t>Секретарь суда</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="8" t="n">
@@ -1654,6 +1684,7 @@
           <t>Судебный пристав</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="8" t="n">
@@ -1710,6 +1741,7 @@
           <t>Судебный эксперт</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="n">
@@ -1738,6 +1770,7 @@
           <t>Нотариус</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="n">
@@ -1766,6 +1799,7 @@
           <t>Патентовед</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="8" t="n">
